--- a/currentbuild/StructureDefinition-lmdi-condition.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-lmdi-condition.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12</t>
+    <t>2025-03-10</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-lmdi-condition.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Publisher</t>
